--- a/CATERING SALADO.xlsx
+++ b/CATERING SALADO.xlsx
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H9:H15" si="1">CONCATENATE("(NULL, '", E11," ', ", " '",E10,"',"," '",C11,"'",", '0'),")</f>
+        <f t="shared" ref="H11:H14" si="1">CONCATENATE("(NULL, '", E11," ', ", " '",E10,"',"," '",C11,"'",", '0'),")</f>
         <v>(NULL, 'Jamon / Queso ',  'SIMPLES BLANCOS O NEGROS', '13', '0'),</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H19:H25" si="2">CONCATENATE("(NULL, '", E19," ', ", " '",$E$17,"',"," '",C19,"'",", '0'),")</f>
+        <f t="shared" ref="H19:H21" si="2">CONCATENATE("(NULL, '", E19," ', ", " '",$E$17,"',"," '",C19,"'",", '0'),")</f>
         <v>(NULL, 'Jamon crudo y queso ',  'CHIPS (clasicos o con amapola o sesamo)', '29', '0'),</v>
       </c>
     </row>
@@ -859,6 +859,10 @@
       <c r="E28" t="s">
         <v>4</v>
       </c>
+      <c r="H28" t="str">
+        <f>CONCATENATE("(NULL, '", E28," ', ", " '",$E$27,"',"," '",C28,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon cocido y queso ',  'SACRAMENTOS (salado o dulce)', '47', '0'),</v>
+      </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="6">
@@ -868,6 +872,10 @@
       <c r="E29" t="s">
         <v>10</v>
       </c>
+      <c r="H29" t="str">
+        <f t="shared" ref="H29:H36" si="3">CONCATENATE("(NULL, '", E29," ', ", " '",$E$27,"',"," '",C29,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon crudo y tomate ',  'SACRAMENTOS (salado o dulce)', '49', '0'),</v>
+      </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="6">
@@ -877,6 +885,10 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>(NULL, 'Pavita ',  'SACRAMENTOS (salado o dulce)', '51', '0'),</v>
+      </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="6">
@@ -886,6 +898,10 @@
       <c r="E31" t="s">
         <v>16</v>
       </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>(NULL, 'Pollo con tomate ',  'SACRAMENTOS (salado o dulce)', '53', '0'),</v>
+      </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="6">
@@ -893,7 +909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -902,7 +918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -910,8 +926,12 @@
       <c r="E34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f>CONCATENATE("(NULL, '", E34," ', ", " '",$E$33,"',"," '",C34,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon cocido y queso ',  'MINI MEDIALUNAS', '59', '0'),</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -919,8 +939,12 @@
       <c r="E35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" ref="H35:H41" si="4">CONCATENATE("(NULL, '", E35," ', ", " '",$E$33,"',"," '",C35,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon cocido y tomate ',  'MINI MEDIALUNAS', '61', '0'),</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -928,14 +952,18 @@
       <c r="E36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="4"/>
+        <v>(NULL, 'Jamon crudo y tomate ',  'MINI MEDIALUNAS', '63', '0'),</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -944,7 +972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -952,8 +980,12 @@
       <c r="E39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f>CONCATENATE("(NULL, '", E39," ', ", " '",$E$38,"',"," '",C39,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon cocidoy queso ',  'PANES SABORIZADOS RELLENOS (14 sabores)', '69', '0'),</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="6">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -961,8 +993,12 @@
       <c r="E40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" ref="H40:H46" si="5">CONCATENATE("(NULL, '", E40," ', ", " '",$E$38,"',"," '",C40,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon crudo y tomate ',  'PANES SABORIZADOS RELLENOS (14 sabores)', '71', '0'),</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="6">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -970,23 +1006,27 @@
       <c r="E41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="5"/>
+        <v>(NULL, 'Pancitos de queso con jamon palmitos y salsa golf ',  'PANES SABORIZADOS RELLENOS (14 sabores)', '73', '0'),</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="6">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="6">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -994,8 +1034,12 @@
       <c r="E44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f>CONCATENATE("(NULL, '", E44," ', ", " '",$E$43,"',"," '",C44,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon crudo y tomate ',  'MINI NEGRITOS', '79', '0'),</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="6">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -1003,8 +1047,12 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" ref="H45:H50" si="6">CONCATENATE("(NULL, '", E45," ', ", " '",$E$43,"',"," '",C45,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon crudo y queso ',  'MINI NEGRITOS', '81', '0'),</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -1012,14 +1060,18 @@
       <c r="E46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="6"/>
+        <v>(NULL, 'Jamon crudo y palmitos ',  'MINI NEGRITOS', '83', '0'),</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="6">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -1028,7 +1080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="6">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -1036,8 +1088,12 @@
       <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f>CONCATENATE("(NULL, '", E49," ', ", " '",$E$48,"',"," '",C49,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon crudo y queso ',  'TRENZITAS', '89', '0'),</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="6">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -1045,14 +1101,18 @@
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f>CONCATENATE("(NULL, '", E50," ', ", " '",$E$48,"',"," '",C50,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon crudo y tomate ',  'TRENZITAS', '91', '0'),</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="6">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="6">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -1061,7 +1121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="6">
         <f t="shared" si="0"/>
         <v>97</v>
@@ -1069,8 +1129,12 @@
       <c r="E53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f>CONCATENATE("(NULL, '", E53," ', ", " '",$E$52,"',"," '",C53,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon cocido y queso ',  'ARROLLADITOS PRIMAVERA', '97', '0'),</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="6">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -1078,8 +1142,12 @@
       <c r="E54" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f t="shared" ref="H54:H58" si="7">CONCATENATE("(NULL, '", E54," ', ", " '",$E$52,"',"," '",C54,"'",", '0'),")</f>
+        <v>(NULL, 'Atun ',  'ARROLLADITOS PRIMAVERA', '99', '0'),</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="6">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -1087,14 +1155,18 @@
       <c r="E55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <f t="shared" si="7"/>
+        <v>(NULL, 'Pollo ',  'ARROLLADITOS PRIMAVERA', '101', '0'),</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="6">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="6">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -1103,7 +1175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="6">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -1111,14 +1183,18 @@
       <c r="E58" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <f>CONCATENATE("(NULL, '", E58," ', ", " '",$E$57,"',"," '",C58,"'",", '0'),")</f>
+        <v>(NULL, 'Leverbush y pepino ',  'PORTEÑITOS', '107', '0'),</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="6">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="6">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -1127,7 +1203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="6">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -1135,8 +1211,12 @@
       <c r="E61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H61" t="str">
+        <f>CONCATENATE("(NULL, '", E61," ', ", " '",$E$60,"',"," '",C61,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon cocido y queso ',  'PLEXALES', '113', '0'),</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="6">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -1144,14 +1224,18 @@
       <c r="E62" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H62" t="str">
+        <f t="shared" ref="H62:H65" si="8">CONCATENATE("(NULL, '", E62," ', ", " '",$E$60,"',"," '",C62,"'",", '0'),")</f>
+        <v>(NULL, 'Pastron y pepino ',  'PLEXALES', '115', '0'),</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="6">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="6">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -1160,7 +1244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="6">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -1168,14 +1252,18 @@
       <c r="E65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H65" t="str">
+        <f>CONCATENATE("(NULL, '", E65," ', ", " '",$E$64,"',"," '",C65,"'",", '0'),")</f>
+        <v>(NULL, 'Jamon cocido y queso ',  'BRIOCHE', '121', '0'),</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="6">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="6">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -1184,7 +1272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="6">
         <f t="shared" si="0"/>
         <v>127</v>
@@ -1192,14 +1280,18 @@
       <c r="E68" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H68" t="str">
+        <f>CONCATENATE("(NULL, '", E68," ', ", " '",$E$67,"',"," '",C68,"'",", '0'),")</f>
+        <v>(NULL, 'Base tarteleta / pionono / queso blanco / atun / caviar / salmon / palmitos / pollo / palta / roquefort / jamon cocido y queso / humita / agridulces ',  'SALADITOS VARIOS', '127', '0'),</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="6">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="6">
         <f t="shared" si="0"/>
         <v>131</v>
@@ -1208,7 +1300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="6">
         <f t="shared" si="0"/>
         <v>133</v>
@@ -1216,8 +1308,12 @@
       <c r="E71" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H71" t="str">
+        <f>CONCATENATE("(NULL, '", E71," ', ", " '",$E$70,"',"," '",C71,"'",", '0'),")</f>
+        <v>(NULL, 'Crema de choclo ',  'MINI VOUL-AU-VENT', '133', '0'),</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="6">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -1225,470 +1321,594 @@
       <c r="E72" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H72" t="str">
+        <f t="shared" ref="H72:H77" si="9">CONCATENATE("(NULL, '", E72," ', ", " '",$E$70,"',"," '",C72,"'",", '0'),")</f>
+        <v>(NULL, 'Pollo ',  'MINI VOUL-AU-VENT', '135', '0'),</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="6">
-        <f t="shared" ref="C73:C128" si="3">C72+2</f>
+        <f t="shared" ref="C73:C128" si="10">C72+2</f>
         <v>137</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H73" t="str">
+        <f t="shared" si="9"/>
+        <v>(NULL, 'Atun ',  'MINI VOUL-AU-VENT', '137', '0'),</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="E74" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H74" t="str">
+        <f t="shared" si="9"/>
+        <v>(NULL, 'Crema de palta ',  'MINI VOUL-AU-VENT', '139', '0'),</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="E77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H77" t="str">
+        <f>CONCATENATE("(NULL, '", E77," ', ", " '",$E$76,"',"," '",C77,"'",", '0'),")</f>
+        <v>(NULL, 'Peceto ',  'FIJACITAS', '145', '0'),</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="E80" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H80" t="str">
+        <f>CONCATENATE("(NULL, '", E80," ', ", " '",$E$79,"',"," '",C80,"'",", '0'),")</f>
+        <v>(NULL, 'Matambre Casero ',  'ROSETITAS', '151', '0'),</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="E83" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H83" t="str">
+        <f>CONCATENATE("(NULL, '", E83," ', ", " '",$E$82,"',"," '",C83,"'",", '0'),")</f>
+        <v>(NULL, 'Muzzarella, tomate y albahaca ',  'MINI ARABES CAPRESSE', '157', '0'),</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
       <c r="E86" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H86" t="str">
+        <f>CONCATENATE("(NULL, '", E86," ', ", " '",$E$85,"',"," '",C86,"'",", '0'),")</f>
+        <v>(NULL, 'Panes saborizados en albahaca, rucula, tomates secos y muzzarella ',  'PANES MEDITERRANEOS', '163', '0'),</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
       <c r="E89" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H89" t="str">
+        <f>CONCATENATE("(NULL, '", E89," ', ", " '",$E$88,"',"," '",C89,"'",", '0'),")</f>
+        <v>(NULL, 'Palillos con queso, tomate y albahaca ',  'BROCHETTE CAPRESSE', '169', '0'),</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
       <c r="E92" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H92" t="str">
+        <f>CONCATENATE("(NULL, '", E92," ', ", " '",$E$91,"',"," '",C92,"'",", '0'),")</f>
+        <v>(NULL, 'Base de queso con queso blanco tomate cherry y aceitunas negras ',  'TARTELETAS DE QUESO', '175', '0'),</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="E95" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H95" t="str">
+        <f>CONCATENATE("(NULL, '", E95," ', ", " '",$E$94,"',"," '",C95,"'",", '0'),")</f>
+        <v>(NULL, 'Con pollo y berenjena ',  'LOCATELLIS', '181', '0'),</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
       <c r="E98" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H98" t="str">
+        <f>CONCATENATE("(NULL, '", E98," ', ", " '",$E$97,"',"," '",C98,"'",", '0'),")</f>
+        <v>(NULL, 'Diversas clases de quesos acompañados con canasta de panes, frutas y salsas ',  'MESA DE QUESOS', '187', '0'),</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
       <c r="E101" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H101" t="str">
+        <f>CONCATENATE("(NULL, '", E101," ', ", " '",$E$100,"',"," '",C101,"'",", '0'),")</f>
+        <v>(NULL, 'Diversas clases de fiambres jamon glase, quesos y carnes, acompañados con canasta de panes, frutas y salsas ',  'MESA DE FIAMBRES', '193', '0'),</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>197</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>199</v>
       </c>
       <c r="E104" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H104" t="str">
+        <f>CONCATENATE("(NULL, '", E104," ', ", " '",$E$103,"',"," '",C104,"'",", '0'),")</f>
+        <v>(NULL, 'Pollo con arroz o mini papines ',  'CAZUELA', '199', '0'),</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="E105" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H105" t="str">
+        <f t="shared" ref="H105:H111" si="11">CONCATENATE("(NULL, '", E105," ', ", " '",$E$103,"',"," '",C105,"'",", '0'),")</f>
+        <v>(NULL, 'Lomo con arroz o mini papines ',  'CAZUELA', '201', '0'),</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>203</v>
       </c>
       <c r="E106" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H106" t="str">
+        <f t="shared" si="11"/>
+        <v>(NULL, 'Verdura ',  'CAZUELA', '203', '0'),</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>205</v>
       </c>
       <c r="E107" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H107" t="str">
+        <f t="shared" si="11"/>
+        <v>(NULL, 'Ravioles ',  'CAZUELA', '205', '0'),</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="E108" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H108" t="str">
+        <f t="shared" si="11"/>
+        <v>(NULL, 'Risotos ',  'CAZUELA', '207', '0'),</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>211</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="E111" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H111" t="str">
+        <f>CONCATENATE("(NULL, '", E111," ', ", " '",$E$110,"',"," '",C111,"'",", '0'),")</f>
+        <v>(NULL, 'Tamaño saladitos / presentados en pirotines ( 11 variedades) ',  'MINI TARTAS', '213', '0'),</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="E114" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H114" t="str">
+        <f>CONCATENATE("(NULL, '", E114," ', ", " '",$E$113,"',"," '",C114,"'",", '0'),")</f>
+        <v>(NULL, 'Rucula, tomate cherry, jamon y queso ',  'CIABATTA', '219', '0'),</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>223</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="E117" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H117" t="str">
+        <f>CONCATENATE("(NULL, '", E117," ', ", " '",$E$116,"',"," '",C117,"'",", '0'),")</f>
+        <v>(NULL, 'Brochettes de carne ',  'CALENTITOS', '225', '0'),</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
       <c r="E118" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H118" t="str">
+        <f t="shared" ref="H118:H128" si="12">CONCATENATE("(NULL, '", E118," ', ", " '",$E$116,"',"," '",C118,"'",", '0'),")</f>
+        <v>(NULL, 'Brochettes de ciruela con panceta ',  'CALENTITOS', '227', '0'),</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>229</v>
       </c>
       <c r="E119" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H119" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Brochettes de riñoncitos con panceta ',  'CALENTITOS', '229', '0'),</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="E120" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H120" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Bombitas de queso ',  'CALENTITOS', '231', '0'),</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="E121" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H121" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Barquitos de humita ',  'CALENTITOS', '233', '0'),</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="E122" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H122" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Empanaditas (masa hojaldre o criolla, varios gustos) ',  'CALENTITOS', '235', '0'),</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="E123" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H123" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Sambuezas (bocaditos de souffle de queso) ',  'CALENTITOS', '237', '0'),</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="E124" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H124" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Calentitos de verdura ',  'CALENTITOS', '239', '0'),</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>241</v>
       </c>
       <c r="E125" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H125" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Croquetitas de carne, jamon cocido y queso ',  'CALENTITOS', '241', '0'),</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="E126" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H126" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Dedos de pollo ',  'CALENTITOS', '243', '0'),</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="E127" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H127" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Dedos de verdura ',  'CALENTITOS', '245', '0'),</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="E128" t="s">
         <v>78</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="12"/>
+        <v>(NULL, 'Dedos de carne ',  'CALENTITOS', '247', '0'),</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">

--- a/CATERING SALADO.xlsx
+++ b/CATERING SALADO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="87">
   <si>
     <t>Combinaciones: queso / anana / tomate / huevo / palmito / aceituna / apio / lechuga / morron / pickles / choclo / atun / berenjenas / capresse / anchoas</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Empanaditas (masa hojaldre o criolla, varios gustos)</t>
   </si>
   <si>
-    <t>Sambuezas (bocaditos de souffle de queso)</t>
-  </si>
-  <si>
     <t>Calentitos de verdura</t>
   </si>
   <si>
@@ -282,6 +279,12 @@
   </si>
   <si>
     <t>TABLA PRECIO</t>
+  </si>
+  <si>
+    <t>Salmon/Camarones (consultar precio)</t>
+  </si>
+  <si>
+    <t>Sambuzas (bocaditos de souffle de queso)</t>
   </si>
 </sst>
 </file>
@@ -627,44 +630,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N130"/>
+  <dimension ref="A4:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView tabSelected="1" topLeftCell="C106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="87.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
         <v>84</v>
-      </c>
-      <c r="L4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -675,17 +679,17 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" t="str">
         <f>CONCATENATE("(",A7,", '",E7,"'),")</f>
         <v>(1, 'TRIPLES BLANCOS O NEGROS (base jamon cocido / jamon crudo / pavita / queso)'),</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -696,65 +700,59 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("(",B8,", '",E8,"', ",A8,", 1),")</f>
         <v>(1, 'Combinaciones: queso / anana / tomate / huevo / palmito / aceituna / apio / lechuga / morron / pickles / choclo / atun / berenjenas / capresse / anchoas', 1, 1),</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N8" t="str">
         <f>CONCATENATE("(",C8,", ",B8,"),")</f>
-        <v>(1, 1),</v>
+        <v>(32, 1),</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H8:H71" si="0">CONCATENATE("(",A10,", '",E10,"'),")</f>
+        <f t="shared" ref="H10:H71" si="0">CONCATENATE("(",A10,", '",E10,"'),")</f>
         <v>(2, 'SIMPLES BLANCOS O NEGROS'),</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -765,65 +763,59 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ref="K9:K72" si="1">CONCATENATE("(",B11,", '",E11,"', ",A11,", 1),")</f>
+        <f t="shared" ref="K11:K73" si="1">CONCATENATE("(",B11,", '",E11,"', ",A11,", 1),")</f>
         <v>(2, 'Jamon / Queso', 2, 1),</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" ref="N9:N72" si="2">CONCATENATE("(",C11,", ",B11,"),")</f>
-        <v>(4, 2),</v>
+        <f t="shared" ref="N11:N73" si="2">CONCATENATE("(",C11,", ",B11,"),")</f>
+        <v>(28, 2),</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="C13" s="6">
-        <v>6</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>(3, 'FOSFORITOS (glasé o azucarados)'),</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -834,27 +826,27 @@
         <v>3</v>
       </c>
       <c r="C14" s="6">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v>(3, 'Jamon cocido y queso', 3, 1),</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>(7, 3),</v>
+        <v>(28, 3),</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -865,65 +857,59 @@
         <v>4</v>
       </c>
       <c r="C15" s="6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v>(4, 'Roquefort y apio', 3, 1),</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>(8, 4),</v>
+        <v>(30, 4),</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="6">
-        <v>9</v>
-      </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
-        <v>10</v>
-      </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>(4, 'CHIPS (clasicos o con amapola o sesamo)'),</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -934,27 +920,27 @@
         <v>5</v>
       </c>
       <c r="C18" s="6">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v>(5, 'Jamon cocido y queso', 4, 1),</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>(11, 5),</v>
+        <v>(28, 5),</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -965,27 +951,27 @@
         <v>6</v>
       </c>
       <c r="C19" s="6">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v>(6, 'Jamon crudo y queso', 4, 1),</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v>(12, 6),</v>
+        <v>(30, 6),</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -996,27 +982,27 @@
         <v>7</v>
       </c>
       <c r="C20" s="6">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v>(7, 'Jamon crudo y tomate', 4, 1),</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
-        <v>(13, 7),</v>
+        <v>(28, 7),</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1027,65 +1013,59 @@
         <v>8</v>
       </c>
       <c r="C21" s="6">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
         <v>(8, 'Pavita y tomate', 4, 1),</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
-        <v>(14, 8),</v>
+        <v>(30, 8),</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="6">
-        <v>15</v>
-      </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="C23" s="6">
-        <v>16</v>
-      </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>(5, 'TRAVIATAS'),</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1096,27 +1076,27 @@
         <v>9</v>
       </c>
       <c r="C24" s="6">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
         <v>(9, 'Vithel tone', 5, 1),</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
-        <v>(17, 9),</v>
+        <v>(30, 9),</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1127,65 +1107,59 @@
         <v>10</v>
       </c>
       <c r="C25" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
         <v>(10, 'Jamon crudo y tomate', 5, 1),</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
-        <v>(18, 10),</v>
+        <v>(30, 10),</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="6">
-        <v>19</v>
-      </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
-      <c r="C27" s="6">
-        <v>20</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>(6, 'SACRAMENTOS (salado o dulce)'),</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1196,27 +1170,27 @@
         <v>11</v>
       </c>
       <c r="C28" s="6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="1"/>
         <v>(11, 'Jamon cocido y queso', 6, 1),</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
-        <v>(21, 11),</v>
+        <v>(28, 11),</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1227,27 +1201,27 @@
         <v>12</v>
       </c>
       <c r="C29" s="6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
         <v>(12, 'Jamon crudo y tomate', 6, 1),</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
-        <v>(22, 12),</v>
+        <v>(30, 12),</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,27 +1232,27 @@
         <v>13</v>
       </c>
       <c r="C30" s="6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
         <v>(13, 'Pavita', 6, 1),</v>
       </c>
       <c r="L30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
-        <v>(23, 13),</v>
+        <v>(30, 13),</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1289,65 +1263,59 @@
         <v>14</v>
       </c>
       <c r="C31" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
         <v>(14, 'Pollo con tomate', 6, 1),</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
-        <v>(24, 14),</v>
+        <v>(30, 14),</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="6">
-        <v>25</v>
-      </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
-        <v>26</v>
-      </c>
       <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>(7, 'MINI MEDIALUNAS'),</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1358,27 +1326,27 @@
         <v>15</v>
       </c>
       <c r="C34" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
         <v>(15, 'Jamon cocido y queso', 7, 1),</v>
       </c>
       <c r="L34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>(27, 15),</v>
+        <v>(28, 15),</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -1389,27 +1357,27 @@
         <v>16</v>
       </c>
       <c r="C35" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
         <v>(16, 'Jamon cocido y tomate', 7, 1),</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
-        <v>(28, 16),</v>
+        <v>(30, 16),</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -1420,65 +1388,59 @@
         <v>17</v>
       </c>
       <c r="C36" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
         <v>(17, 'Jamon crudo y tomate', 7, 1),</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
-        <v>(29, 17),</v>
+        <v>(30, 17),</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C37" s="6">
-        <v>30</v>
-      </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="C38" s="6">
-        <v>31</v>
-      </c>
       <c r="E38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>(8, 'PANES SABORIZADOS RELLENOS (14 sabores)'),</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -1489,27 +1451,27 @@
         <v>18</v>
       </c>
       <c r="C39" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="1"/>
         <v>(18, 'Jamon cocidoy queso', 8, 1),</v>
       </c>
       <c r="L39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
-        <v>(32, 18),</v>
+        <v>(30, 18),</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -1520,27 +1482,27 @@
         <v>19</v>
       </c>
       <c r="C40" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="1"/>
         <v>(19, 'Jamon crudo y tomate', 8, 1),</v>
       </c>
       <c r="L40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
-        <v>(33, 19),</v>
+        <v>(30, 19),</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -1551,65 +1513,59 @@
         <v>20</v>
       </c>
       <c r="C41" s="6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="1"/>
         <v>(20, 'Pancitos de queso con jamon palmitos y salsa golf', 8, 1),</v>
       </c>
       <c r="L41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
-        <v>(34, 20),</v>
+        <v>(30, 20),</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="6">
-        <v>35</v>
-      </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
-      <c r="C43" s="6">
-        <v>36</v>
-      </c>
       <c r="E43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>(9, 'MINI NEGRITOS'),</v>
       </c>
       <c r="I43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -1620,27 +1576,27 @@
         <v>21</v>
       </c>
       <c r="C44" s="6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="1"/>
         <v>(21, 'Jamon crudo y tomate', 9, 1),</v>
       </c>
       <c r="L44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
-        <v>(37, 21),</v>
+        <v>(30, 21),</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -1651,27 +1607,27 @@
         <v>22</v>
       </c>
       <c r="C45" s="6">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="1"/>
         <v>(22, 'Jamon crudo y queso', 9, 1),</v>
       </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
-        <v>(38, 22),</v>
+        <v>(30, 22),</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -1682,65 +1638,59 @@
         <v>23</v>
       </c>
       <c r="C46" s="6">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="1"/>
         <v>(23, 'Jamon crudo y palmitos', 9, 1),</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
-        <v>(39, 23),</v>
+        <v>(30, 23),</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C47" s="6">
-        <v>40</v>
-      </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
-      <c r="C48" s="6">
-        <v>41</v>
-      </c>
       <c r="E48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>(10, 'TRENZITAS'),</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -1751,27 +1701,27 @@
         <v>24</v>
       </c>
       <c r="C49" s="6">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="1"/>
         <v>(24, 'Jamon crudo y queso', 10, 1),</v>
       </c>
       <c r="L49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
-        <v>(42, 24),</v>
+        <v>(30, 24),</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -1782,65 +1732,59 @@
         <v>25</v>
       </c>
       <c r="C50" s="6">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="1"/>
         <v>(25, 'Jamon crudo y tomate', 10, 1),</v>
       </c>
       <c r="L50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
-        <v>(43, 25),</v>
+        <v>(30, 25),</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C51" s="6">
-        <v>44</v>
-      </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
-      <c r="C52" s="6">
-        <v>45</v>
-      </c>
       <c r="E52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>(11, 'ARROLLADITOS PRIMAVERA'),</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -1851,27 +1795,27 @@
         <v>26</v>
       </c>
       <c r="C53" s="6">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="1"/>
         <v>(26, 'Jamon cocido y queso', 11, 1),</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
-        <v>(46, 26),</v>
+        <v>(28, 26),</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -1882,27 +1826,27 @@
         <v>27</v>
       </c>
       <c r="C54" s="6">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="1"/>
         <v>(27, 'Atun', 11, 1),</v>
       </c>
       <c r="L54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="2"/>
-        <v>(47, 27),</v>
+        <v>(28, 27),</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -1913,65 +1857,59 @@
         <v>28</v>
       </c>
       <c r="C55" s="6">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="1"/>
         <v>(28, 'Pollo', 11, 1),</v>
       </c>
       <c r="L55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="2"/>
-        <v>(48, 28),</v>
+        <v>(30, 28),</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C56" s="6">
-        <v>49</v>
-      </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
-      <c r="C57" s="6">
-        <v>50</v>
-      </c>
       <c r="E57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
         <v>(12, 'PORTEÑITOS'),</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -1982,65 +1920,59 @@
         <v>29</v>
       </c>
       <c r="C58" s="6">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="1"/>
         <v>(29, 'Leverbush y pepino', 12, 1),</v>
       </c>
       <c r="L58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="2"/>
-        <v>(51, 29),</v>
+        <v>(28, 29),</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="6">
-        <v>52</v>
-      </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13</v>
       </c>
-      <c r="C60" s="6">
-        <v>53</v>
-      </c>
       <c r="E60" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v>(13, 'PLEXALES'),</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -2051,27 +1983,27 @@
         <v>30</v>
       </c>
       <c r="C61" s="6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="1"/>
         <v>(30, 'Jamon cocido y queso', 13, 1),</v>
       </c>
       <c r="L61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="2"/>
-        <v>(54, 30),</v>
+        <v>(28, 30),</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -2082,65 +2014,59 @@
         <v>31</v>
       </c>
       <c r="C62" s="6">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="1"/>
         <v>(31, 'Pastron y pepino', 13, 1),</v>
       </c>
       <c r="L62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="2"/>
-        <v>(55, 31),</v>
+        <v>(30, 31),</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C63" s="6">
-        <v>56</v>
-      </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
-      <c r="C64" s="6">
-        <v>57</v>
-      </c>
       <c r="E64" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v>(14, 'BRIOCHE'),</v>
       </c>
       <c r="I64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -2151,65 +2077,59 @@
         <v>32</v>
       </c>
       <c r="C65" s="6">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="1"/>
         <v>(32, 'Jamon cocido y queso', 14, 1),</v>
       </c>
       <c r="L65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="2"/>
-        <v>(58, 32),</v>
+        <f>CONCATENATE("(",C65,", ",B65,"),")</f>
+        <v>(28, 32),</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C66" s="6">
-        <v>59</v>
-      </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15</v>
       </c>
-      <c r="C67" s="6">
-        <v>60</v>
-      </c>
       <c r="E67" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="0"/>
         <v>(15, 'SALADITOS VARIOS'),</v>
       </c>
       <c r="I67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -2220,92 +2140,62 @@
         <v>33</v>
       </c>
       <c r="C68" s="6">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="1"/>
         <v>(33, 'Base tarteleta / pionono / queso blanco / atun / caviar / salmon / palmitos / pollo / palta / roquefort / jamon cocido y queso / humita / agridulces', 15, 1),</v>
       </c>
       <c r="L68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="2"/>
-        <v>(61, 33),</v>
+        <v>(28, 33),</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C69" s="6">
-        <v>62</v>
+      <c r="E69" t="s">
+        <v>85</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>16</v>
-      </c>
-      <c r="C70" s="6">
-        <v>63</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="0"/>
-        <v>(16, 'MINI VOUL-AU-VENT'),</v>
-      </c>
-      <c r="I70" t="s">
-        <v>82</v>
-      </c>
-      <c r="L70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
-      <c r="B71">
+      <c r="E71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="6">
-        <v>64</v>
-      </c>
-      <c r="E71" t="s">
-        <v>35</v>
-      </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="0"/>
+        <v>(16, 'MINI VOUL-AU-VENT'),</v>
       </c>
       <c r="I71" t="s">
-        <v>82</v>
-      </c>
-      <c r="K71" t="str">
-        <f t="shared" si="1"/>
-        <v>(34, 'Crema de choclo', 16, 1),</v>
+        <v>81</v>
       </c>
       <c r="L71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -2313,30 +2203,30 @@
         <v>16</v>
       </c>
       <c r="B72">
+        <v>34</v>
+      </c>
+      <c r="C72" s="6">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="6">
-        <v>65</v>
-      </c>
-      <c r="E72" t="s">
-        <v>26</v>
-      </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="1"/>
-        <v>(35, 'Pollo', 16, 1),</v>
+        <v>(34, 'Crema de choclo', 16, 1),</v>
       </c>
       <c r="L72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="2"/>
-        <v>(65, 35),</v>
+        <v>(28, 34),</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -2344,30 +2234,30 @@
         <v>16</v>
       </c>
       <c r="B73">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="6">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" ref="K73:K128" si="3">CONCATENATE("(",B73,", '",E73,"', ",A73,", 1),")</f>
-        <v>(36, 'Atun', 16, 1),</v>
+        <f t="shared" si="1"/>
+        <v>(35, 'Pollo', 16, 1),</v>
       </c>
       <c r="L73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" ref="N73:N128" si="4">CONCATENATE("(",C73,", ",B73,"),")</f>
-        <v>(66, 36),</v>
+        <f t="shared" si="2"/>
+        <v>(28, 35),</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -2375,720 +2265,646 @@
         <v>16</v>
       </c>
       <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="C74" s="6">
+        <v>28</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s">
+        <v>81</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" ref="K74:K129" si="3">CONCATENATE("(",B74,", '",E74,"', ",A74,", 1),")</f>
+        <v>(36, 'Atun', 16, 1),</v>
+      </c>
+      <c r="L74" t="s">
+        <v>81</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" ref="N74:N129" si="4">CONCATENATE("(",C74,", ",B74,"),")</f>
+        <v>(28, 36),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75">
         <v>37</v>
       </c>
-      <c r="C74" s="6">
-        <v>67</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C75" s="6">
+        <v>28</v>
+      </c>
+      <c r="E75" t="s">
         <v>36</v>
       </c>
-      <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="I74" t="s">
-        <v>82</v>
-      </c>
-      <c r="K74" t="str">
+      <c r="F75" t="s">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s">
+        <v>81</v>
+      </c>
+      <c r="K75" t="str">
         <f t="shared" si="3"/>
         <v>(37, 'Crema de palta', 16, 1),</v>
       </c>
-      <c r="L74" t="s">
-        <v>82</v>
-      </c>
-      <c r="N74" t="str">
+      <c r="L75" t="s">
+        <v>81</v>
+      </c>
+      <c r="N75" t="str">
         <f t="shared" si="4"/>
-        <v>(67, 37),</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C75" s="6">
-        <v>68</v>
-      </c>
-      <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s">
-        <v>82</v>
-      </c>
-      <c r="L75" t="s">
-        <v>82</v>
+        <v>(28, 37),</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>17</v>
-      </c>
-      <c r="C76" s="6">
-        <v>69</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" ref="H72:H128" si="5">CONCATENATE("(",A76,", '",E76,"'),")</f>
-        <v>(17, 'FIJACITAS'),</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>17</v>
       </c>
-      <c r="B77">
+      <c r="E77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" ref="H77:H117" si="5">CONCATENATE("(",A77,", '",E77,"'),")</f>
+        <v>(17, 'FIJACITAS'),</v>
+      </c>
+      <c r="I77" t="s">
+        <v>81</v>
+      </c>
+      <c r="L77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
         <v>38</v>
       </c>
-      <c r="C77" s="6">
-        <v>70</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C78" s="6">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
         <v>38</v>
       </c>
-      <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s">
-        <v>82</v>
-      </c>
-      <c r="K77" t="str">
+      <c r="F78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s">
+        <v>81</v>
+      </c>
+      <c r="K78" t="str">
         <f t="shared" si="3"/>
         <v>(38, 'Peceto', 17, 1),</v>
       </c>
-      <c r="L77" t="s">
-        <v>82</v>
-      </c>
-      <c r="N77" t="str">
+      <c r="L78" t="s">
+        <v>81</v>
+      </c>
+      <c r="N78" t="str">
         <f t="shared" si="4"/>
-        <v>(70, 38),</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C78" s="6">
-        <v>71</v>
-      </c>
-      <c r="F78" t="s">
-        <v>82</v>
-      </c>
-      <c r="I78" t="s">
-        <v>82</v>
-      </c>
-      <c r="L78" t="s">
-        <v>82</v>
+        <v>(35, 38),</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>18</v>
-      </c>
-      <c r="C79" s="6">
-        <v>72</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="5"/>
-        <v>(18, 'ROSETITAS'),</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>18</v>
       </c>
-      <c r="B80">
+      <c r="E80" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="6">
-        <v>73</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="5"/>
+        <v>(18, 'ROSETITAS'),</v>
+      </c>
+      <c r="I80" t="s">
+        <v>81</v>
+      </c>
+      <c r="L80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>39</v>
+      </c>
+      <c r="C81" s="6">
+        <v>35</v>
+      </c>
+      <c r="E81" t="s">
         <v>40</v>
       </c>
-      <c r="F80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s">
-        <v>82</v>
-      </c>
-      <c r="K80" t="str">
+      <c r="F81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s">
+        <v>81</v>
+      </c>
+      <c r="K81" t="str">
         <f t="shared" si="3"/>
         <v>(39, 'Matambre Casero', 18, 1),</v>
       </c>
-      <c r="L80" t="s">
-        <v>82</v>
-      </c>
-      <c r="N80" t="str">
+      <c r="L81" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81" t="str">
         <f t="shared" si="4"/>
-        <v>(73, 39),</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="6">
-        <v>74</v>
-      </c>
-      <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s">
-        <v>82</v>
-      </c>
-      <c r="L81" t="s">
-        <v>82</v>
+        <v>(35, 39),</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>19</v>
-      </c>
-      <c r="C82" s="6">
-        <v>75</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F82" t="s">
-        <v>82</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="5"/>
-        <v>(19, 'MINI ARABES CAPRESSE'),</v>
+        <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19</v>
       </c>
-      <c r="B83">
+      <c r="E83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="5"/>
+        <v>(19, 'MINI ARABES CAPRESSE'),</v>
+      </c>
+      <c r="I83" t="s">
+        <v>81</v>
+      </c>
+      <c r="L83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>19</v>
+      </c>
+      <c r="B84">
         <v>40</v>
       </c>
-      <c r="C83" s="6">
-        <v>76</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C84" s="6">
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
         <v>42</v>
       </c>
-      <c r="F83" t="s">
-        <v>82</v>
-      </c>
-      <c r="I83" t="s">
-        <v>82</v>
-      </c>
-      <c r="K83" t="str">
+      <c r="F84" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K84" t="str">
         <f t="shared" si="3"/>
         <v>(40, 'Muzzarella, tomate y albahaca', 19, 1),</v>
       </c>
-      <c r="L83" t="s">
-        <v>82</v>
-      </c>
-      <c r="N83" t="str">
+      <c r="L84" t="s">
+        <v>81</v>
+      </c>
+      <c r="N84" t="str">
         <f t="shared" si="4"/>
-        <v>(76, 40),</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C84" s="6">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I84" t="s">
-        <v>82</v>
-      </c>
-      <c r="L84" t="s">
-        <v>82</v>
+        <v>(30, 40),</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>20</v>
-      </c>
-      <c r="C85" s="6">
-        <v>78</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F85" t="s">
-        <v>82</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="5"/>
-        <v>(20, 'PANES MEDITERRANEOS'),</v>
+        <v>81</v>
       </c>
       <c r="I85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
-      <c r="B86">
+      <c r="E86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="5"/>
+        <v>(20, 'PANES MEDITERRANEOS'),</v>
+      </c>
+      <c r="I86" t="s">
+        <v>81</v>
+      </c>
+      <c r="L86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87">
         <v>41</v>
       </c>
-      <c r="C86" s="6">
-        <v>79</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C87" s="6">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
         <v>44</v>
       </c>
-      <c r="F86" t="s">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s">
-        <v>82</v>
-      </c>
-      <c r="K86" t="str">
+      <c r="F87" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87" t="s">
+        <v>81</v>
+      </c>
+      <c r="K87" t="str">
         <f t="shared" si="3"/>
         <v>(41, 'Panes saborizados en albahaca, rucula, tomates secos y muzzarella', 20, 1),</v>
       </c>
-      <c r="L86" t="s">
-        <v>82</v>
-      </c>
-      <c r="N86" t="str">
+      <c r="L87" t="s">
+        <v>81</v>
+      </c>
+      <c r="N87" t="str">
         <f t="shared" si="4"/>
-        <v>(79, 41),</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C87" s="6">
-        <v>80</v>
-      </c>
-      <c r="F87" t="s">
-        <v>82</v>
-      </c>
-      <c r="I87" t="s">
-        <v>82</v>
-      </c>
-      <c r="L87" t="s">
-        <v>82</v>
+        <v>(30, 41),</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>21</v>
-      </c>
-      <c r="C88" s="6">
-        <v>81</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F88" t="s">
-        <v>82</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="5"/>
-        <v>(21, 'BROCHETTE CAPRESSE'),</v>
+        <v>81</v>
       </c>
       <c r="I88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>21</v>
       </c>
-      <c r="B89">
+      <c r="E89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="5"/>
+        <v>(21, 'BROCHETTE CAPRESSE'),</v>
+      </c>
+      <c r="I89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>21</v>
+      </c>
+      <c r="B90">
         <v>42</v>
       </c>
-      <c r="C89" s="6">
-        <v>82</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C90" s="6">
+        <v>28</v>
+      </c>
+      <c r="E90" t="s">
         <v>46</v>
       </c>
-      <c r="F89" t="s">
-        <v>82</v>
-      </c>
-      <c r="I89" t="s">
-        <v>82</v>
-      </c>
-      <c r="K89" t="str">
+      <c r="F90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I90" t="s">
+        <v>81</v>
+      </c>
+      <c r="K90" t="str">
         <f t="shared" si="3"/>
         <v>(42, 'Palillos con queso, tomate y albahaca', 21, 1),</v>
       </c>
-      <c r="L89" t="s">
-        <v>82</v>
-      </c>
-      <c r="N89" t="str">
+      <c r="L90" t="s">
+        <v>81</v>
+      </c>
+      <c r="N90" t="str">
         <f t="shared" si="4"/>
-        <v>(82, 42),</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C90" s="6">
-        <v>83</v>
-      </c>
-      <c r="F90" t="s">
-        <v>82</v>
-      </c>
-      <c r="I90" t="s">
-        <v>82</v>
-      </c>
-      <c r="L90" t="s">
-        <v>82</v>
+        <v>(28, 42),</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>22</v>
-      </c>
-      <c r="C91" s="6">
-        <v>84</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F91" t="s">
-        <v>82</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="5"/>
-        <v>(22, 'TARTELETAS DE QUESO'),</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>22</v>
       </c>
-      <c r="B92">
+      <c r="E92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="5"/>
+        <v>(22, 'TARTELETAS DE QUESO'),</v>
+      </c>
+      <c r="I92" t="s">
+        <v>81</v>
+      </c>
+      <c r="L92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>22</v>
+      </c>
+      <c r="B93">
         <v>43</v>
       </c>
-      <c r="C92" s="6">
-        <v>85</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="C93" s="6">
+        <v>28</v>
+      </c>
+      <c r="E93" t="s">
         <v>48</v>
       </c>
-      <c r="F92" t="s">
-        <v>82</v>
-      </c>
-      <c r="I92" t="s">
-        <v>82</v>
-      </c>
-      <c r="K92" t="str">
+      <c r="F93" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93" t="s">
+        <v>81</v>
+      </c>
+      <c r="K93" t="str">
         <f t="shared" si="3"/>
         <v>(43, 'Base de queso con queso blanco tomate cherry y aceitunas negras', 22, 1),</v>
       </c>
-      <c r="L92" t="s">
-        <v>82</v>
-      </c>
-      <c r="N92" t="str">
+      <c r="L93" t="s">
+        <v>81</v>
+      </c>
+      <c r="N93" t="str">
         <f t="shared" si="4"/>
-        <v>(85, 43),</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C93" s="6">
-        <v>86</v>
-      </c>
-      <c r="F93" t="s">
-        <v>82</v>
-      </c>
-      <c r="I93" t="s">
-        <v>82</v>
-      </c>
-      <c r="L93" t="s">
-        <v>82</v>
+        <v>(28, 43),</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>23</v>
-      </c>
-      <c r="C94" s="6">
-        <v>87</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F94" t="s">
-        <v>82</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="5"/>
-        <v>(23, 'LOCATELLIS'),</v>
+        <v>81</v>
       </c>
       <c r="I94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23</v>
       </c>
-      <c r="B95">
+      <c r="E95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="5"/>
+        <v>(23, 'LOCATELLIS'),</v>
+      </c>
+      <c r="I95" t="s">
+        <v>81</v>
+      </c>
+      <c r="L95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96">
         <v>44</v>
       </c>
-      <c r="C95" s="6">
-        <v>88</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="C96" s="6">
+        <v>30</v>
+      </c>
+      <c r="E96" t="s">
         <v>50</v>
       </c>
-      <c r="F95" t="s">
-        <v>82</v>
-      </c>
-      <c r="I95" t="s">
-        <v>82</v>
-      </c>
-      <c r="K95" t="str">
+      <c r="F96" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96" t="s">
+        <v>81</v>
+      </c>
+      <c r="K96" t="str">
         <f t="shared" si="3"/>
         <v>(44, 'Con pollo y berenjena', 23, 1),</v>
       </c>
-      <c r="L95" t="s">
-        <v>82</v>
-      </c>
-      <c r="N95" t="str">
+      <c r="L96" t="s">
+        <v>81</v>
+      </c>
+      <c r="N96" t="str">
         <f t="shared" si="4"/>
-        <v>(88, 44),</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C96" s="6">
-        <v>89</v>
-      </c>
-      <c r="F96" t="s">
-        <v>82</v>
-      </c>
-      <c r="I96" t="s">
-        <v>82</v>
-      </c>
-      <c r="L96" t="s">
-        <v>82</v>
+        <v>(30, 44),</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>24</v>
-      </c>
-      <c r="C97" s="6">
-        <v>90</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="5"/>
-        <v>(24, 'MESA DE QUESOS'),</v>
+        <v>81</v>
       </c>
       <c r="I97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>24</v>
       </c>
-      <c r="B98">
+      <c r="E98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" t="s">
+        <v>81</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="5"/>
+        <v>(24, 'MESA DE QUESOS'),</v>
+      </c>
+      <c r="I98" t="s">
+        <v>81</v>
+      </c>
+      <c r="L98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>24</v>
+      </c>
+      <c r="B99">
         <v>45</v>
       </c>
-      <c r="C98" s="6">
-        <v>91</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>52</v>
       </c>
-      <c r="F98" t="s">
-        <v>82</v>
-      </c>
-      <c r="I98" t="s">
-        <v>82</v>
-      </c>
-      <c r="K98" t="str">
+      <c r="F99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s">
+        <v>81</v>
+      </c>
+      <c r="K99" t="str">
         <f t="shared" si="3"/>
         <v>(45, 'Diversas clases de quesos acompañados con canasta de panes, frutas y salsas', 24, 1),</v>
       </c>
-      <c r="L98" t="s">
-        <v>82</v>
-      </c>
-      <c r="N98" t="str">
-        <f t="shared" si="4"/>
-        <v>(91, 45),</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="6">
-        <v>92</v>
-      </c>
-      <c r="F99" t="s">
-        <v>82</v>
-      </c>
-      <c r="I99" t="s">
-        <v>82</v>
-      </c>
       <c r="L99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>25</v>
-      </c>
-      <c r="C100" s="6">
-        <v>93</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F100" t="s">
-        <v>82</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="5"/>
-        <v>(25, 'MESA DE FIAMBRES'),</v>
+        <v>81</v>
       </c>
       <c r="I100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>25</v>
       </c>
-      <c r="B101">
+      <c r="E101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="5"/>
+        <v>(25, 'MESA DE FIAMBRES'),</v>
+      </c>
+      <c r="I101" t="s">
+        <v>81</v>
+      </c>
+      <c r="L101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>25</v>
+      </c>
+      <c r="B102">
         <v>46</v>
       </c>
-      <c r="C101" s="6">
-        <v>94</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>54</v>
       </c>
-      <c r="F101" t="s">
-        <v>82</v>
-      </c>
-      <c r="I101" t="s">
-        <v>82</v>
-      </c>
-      <c r="K101" t="str">
+      <c r="F102" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s">
+        <v>81</v>
+      </c>
+      <c r="K102" t="str">
         <f t="shared" si="3"/>
         <v>(46, 'Diversas clases de fiambres jamon glase, quesos y carnes, acompañados con canasta de panes, frutas y salsas', 25, 1),</v>
       </c>
-      <c r="L101" t="s">
-        <v>82</v>
-      </c>
-      <c r="N101" t="str">
-        <f t="shared" si="4"/>
-        <v>(94, 46),</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="6">
-        <v>95</v>
-      </c>
-      <c r="F102" t="s">
-        <v>82</v>
-      </c>
-      <c r="I102" t="s">
-        <v>82</v>
-      </c>
       <c r="L102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>26</v>
-      </c>
-      <c r="C103" s="6">
-        <v>96</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F103" t="s">
-        <v>82</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="5"/>
-        <v>(26, 'CAZUELA'),</v>
+        <v>81</v>
       </c>
       <c r="I103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>26</v>
       </c>
-      <c r="B104">
-        <v>47</v>
-      </c>
-      <c r="C104" s="6">
-        <v>97</v>
-      </c>
-      <c r="E104" t="s">
-        <v>56</v>
+      <c r="E104" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="5"/>
+        <v>(26, 'CAZUELA'),</v>
       </c>
       <c r="I104" t="s">
-        <v>82</v>
-      </c>
-      <c r="K104" t="str">
-        <f t="shared" si="3"/>
-        <v>(47, 'Pollo con arroz o mini papines', 26, 1),</v>
+        <v>81</v>
       </c>
       <c r="L104" t="s">
-        <v>82</v>
-      </c>
-      <c r="N104" t="str">
-        <f t="shared" si="4"/>
-        <v>(97, 47),</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -3096,30 +2912,30 @@
         <v>26</v>
       </c>
       <c r="B105">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C105" s="6">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="3"/>
-        <v>(48, 'Lomo con arroz o mini papines', 26, 1),</v>
+        <v>(47, 'Pollo con arroz o mini papines', 26, 1),</v>
       </c>
       <c r="L105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N105" t="str">
         <f t="shared" si="4"/>
-        <v>(98, 48),</v>
+        <v>(65, 47),</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -3127,30 +2943,30 @@
         <v>26</v>
       </c>
       <c r="B106">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106" s="6">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="3"/>
-        <v>(49, 'Verdura', 26, 1),</v>
+        <v>(48, 'Lomo con arroz o mini papines', 26, 1),</v>
       </c>
       <c r="L106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N106" t="str">
         <f t="shared" si="4"/>
-        <v>(99, 49),</v>
+        <v>(85, 48),</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -3158,30 +2974,30 @@
         <v>26</v>
       </c>
       <c r="B107">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C107" s="6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="3"/>
-        <v>(50, 'Ravioles', 26, 1),</v>
+        <v>(49, 'Verdura', 26, 1),</v>
       </c>
       <c r="L107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N107" t="str">
         <f t="shared" si="4"/>
-        <v>(100, 50),</v>
+        <v>(65, 49),</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -3189,237 +3005,219 @@
         <v>26</v>
       </c>
       <c r="B108">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C108" s="6">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="3"/>
-        <v>(51, 'Risotos', 26, 1),</v>
+        <v>(50, 'Ravioles', 26, 1),</v>
       </c>
       <c r="L108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N108" t="str">
         <f t="shared" si="4"/>
-        <v>(101, 51),</v>
+        <v>(65, 50),</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>26</v>
+      </c>
+      <c r="B109">
+        <v>51</v>
+      </c>
       <c r="C109" s="6">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="E109" t="s">
+        <v>60</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I109" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="3"/>
+        <v>(51, 'Risotos', 26, 1),</v>
       </c>
       <c r="L109" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="4"/>
+        <v>(65, 51),</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>27</v>
-      </c>
-      <c r="C110" s="6">
-        <v>103</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F110" t="s">
-        <v>82</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="5"/>
-        <v>(27, 'MINI TARTAS'),</v>
+        <v>81</v>
       </c>
       <c r="I110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>27</v>
       </c>
-      <c r="B111">
+      <c r="E111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="5"/>
+        <v>(27, 'MINI TARTAS'),</v>
+      </c>
+      <c r="I111" t="s">
+        <v>81</v>
+      </c>
+      <c r="L111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>27</v>
+      </c>
+      <c r="B112">
         <v>52</v>
       </c>
-      <c r="C111" s="6">
-        <v>104</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C112" s="6">
+        <v>28</v>
+      </c>
+      <c r="E112" t="s">
         <v>62</v>
       </c>
-      <c r="F111" t="s">
-        <v>82</v>
-      </c>
-      <c r="I111" t="s">
-        <v>82</v>
-      </c>
-      <c r="K111" t="str">
+      <c r="F112" t="s">
+        <v>81</v>
+      </c>
+      <c r="I112" t="s">
+        <v>81</v>
+      </c>
+      <c r="K112" t="str">
         <f t="shared" si="3"/>
         <v>(52, 'Tamaño saladitos / presentados en pirotines ( 11 variedades)', 27, 1),</v>
       </c>
-      <c r="L111" t="s">
-        <v>82</v>
-      </c>
-      <c r="N111" t="str">
+      <c r="L112" t="s">
+        <v>81</v>
+      </c>
+      <c r="N112" t="str">
         <f t="shared" si="4"/>
-        <v>(104, 52),</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="6">
-        <v>105</v>
-      </c>
-      <c r="F112" t="s">
-        <v>82</v>
-      </c>
-      <c r="I112" t="s">
-        <v>82</v>
-      </c>
-      <c r="L112" t="s">
-        <v>82</v>
+        <v>(28, 52),</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>28</v>
-      </c>
-      <c r="C113" s="6">
-        <v>106</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F113" t="s">
-        <v>82</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="5"/>
-        <v>(28, 'CIABATTA'),</v>
+        <v>81</v>
       </c>
       <c r="I113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>28</v>
       </c>
-      <c r="B114">
+      <c r="E114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" t="s">
+        <v>81</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="5"/>
+        <v>(28, 'CIABATTA'),</v>
+      </c>
+      <c r="I114" t="s">
+        <v>81</v>
+      </c>
+      <c r="L114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>28</v>
+      </c>
+      <c r="B115">
         <v>53</v>
       </c>
-      <c r="C114" s="6">
-        <v>107</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C115" s="6">
+        <v>30</v>
+      </c>
+      <c r="E115" t="s">
         <v>64</v>
       </c>
-      <c r="F114" t="s">
-        <v>82</v>
-      </c>
-      <c r="I114" t="s">
-        <v>82</v>
-      </c>
-      <c r="K114" t="str">
+      <c r="F115" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115" t="s">
+        <v>81</v>
+      </c>
+      <c r="K115" t="str">
         <f t="shared" si="3"/>
         <v>(53, 'Rucula, tomate cherry, jamon y queso', 28, 1),</v>
       </c>
-      <c r="L114" t="s">
-        <v>82</v>
-      </c>
-      <c r="N114" t="str">
+      <c r="L115" t="s">
+        <v>81</v>
+      </c>
+      <c r="N115" t="str">
         <f t="shared" si="4"/>
-        <v>(107, 53),</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C115" s="6">
-        <v>108</v>
-      </c>
-      <c r="F115" t="s">
-        <v>82</v>
-      </c>
-      <c r="I115" t="s">
-        <v>82</v>
-      </c>
-      <c r="L115" t="s">
-        <v>82</v>
+        <v>(30, 53),</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>29</v>
-      </c>
-      <c r="C116" s="6">
-        <v>109</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F116" t="s">
-        <v>82</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="5"/>
-        <v>(29, 'CALENTITOS'),</v>
+        <v>81</v>
       </c>
       <c r="I116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>29</v>
       </c>
-      <c r="B117">
-        <v>54</v>
-      </c>
-      <c r="C117" s="6">
-        <v>110</v>
-      </c>
-      <c r="E117" t="s">
-        <v>66</v>
+      <c r="E117" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="5"/>
+        <v>(29, 'CALENTITOS'),</v>
       </c>
       <c r="I117" t="s">
-        <v>82</v>
-      </c>
-      <c r="K117" t="str">
-        <f t="shared" si="3"/>
-        <v>(54, 'Brochettes de carne', 29, 1),</v>
+        <v>81</v>
       </c>
       <c r="L117" t="s">
-        <v>82</v>
-      </c>
-      <c r="N117" t="str">
-        <f t="shared" si="4"/>
-        <v>(110, 54),</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -3427,30 +3225,30 @@
         <v>29</v>
       </c>
       <c r="B118">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C118" s="6">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K118" t="str">
         <f t="shared" si="3"/>
-        <v>(55, 'Brochettes de ciruela con panceta', 29, 1),</v>
+        <v>(54, 'Brochettes de carne', 29, 1),</v>
       </c>
       <c r="L118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="4"/>
-        <v>(111, 55),</v>
+        <v>(30, 54),</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -3458,30 +3256,30 @@
         <v>29</v>
       </c>
       <c r="B119">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C119" s="6">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" si="3"/>
-        <v>(56, 'Brochettes de riñoncitos con panceta', 29, 1),</v>
+        <v>(55, 'Brochettes de ciruela con panceta', 29, 1),</v>
       </c>
       <c r="L119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N119" t="str">
         <f t="shared" si="4"/>
-        <v>(112, 56),</v>
+        <v>(30, 55),</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -3489,30 +3287,30 @@
         <v>29</v>
       </c>
       <c r="B120">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" s="6">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K120" t="str">
         <f t="shared" si="3"/>
-        <v>(57, 'Bombitas de queso', 29, 1),</v>
+        <v>(56, 'Brochettes de riñoncitos con panceta', 29, 1),</v>
       </c>
       <c r="L120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N120" t="str">
         <f t="shared" si="4"/>
-        <v>(113, 57),</v>
+        <v>(30, 56),</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -3520,30 +3318,30 @@
         <v>29</v>
       </c>
       <c r="B121">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C121" s="6">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="3"/>
-        <v>(58, 'Barquitos de humita', 29, 1),</v>
+        <v>(57, 'Bombitas de queso', 29, 1),</v>
       </c>
       <c r="L121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N121" t="str">
         <f t="shared" si="4"/>
-        <v>(114, 58),</v>
+        <v>(28, 57),</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -3551,30 +3349,30 @@
         <v>29</v>
       </c>
       <c r="B122">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C122" s="6">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="E122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" si="3"/>
-        <v>(59, 'Empanaditas (masa hojaldre o criolla, varios gustos)', 29, 1),</v>
+        <v>(58, 'Barquitos de humita', 29, 1),</v>
       </c>
       <c r="L122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N122" t="str">
         <f t="shared" si="4"/>
-        <v>(115, 59),</v>
+        <v>(28, 58),</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -3582,30 +3380,30 @@
         <v>29</v>
       </c>
       <c r="B123">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C123" s="6">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="E123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" si="3"/>
-        <v>(60, 'Sambuezas (bocaditos de souffle de queso)', 29, 1),</v>
+        <v>(59, 'Empanaditas (masa hojaldre o criolla, varios gustos)', 29, 1),</v>
       </c>
       <c r="L123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N123" t="str">
         <f t="shared" si="4"/>
-        <v>(116, 60),</v>
+        <v>(28, 59),</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -3613,30 +3411,30 @@
         <v>29</v>
       </c>
       <c r="B124">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C124" s="6">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K124" t="str">
         <f t="shared" si="3"/>
-        <v>(61, 'Calentitos de verdura', 29, 1),</v>
+        <v>(60, 'Sambuzas (bocaditos de souffle de queso)', 29, 1),</v>
       </c>
       <c r="L124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N124" t="str">
         <f t="shared" si="4"/>
-        <v>(117, 61),</v>
+        <v>(28, 60),</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -3644,30 +3442,30 @@
         <v>29</v>
       </c>
       <c r="B125">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C125" s="6">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="E125" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="3"/>
-        <v>(62, 'Croquetitas de carne, jamon cocido y queso', 29, 1),</v>
+        <v>(61, 'Calentitos de verdura', 29, 1),</v>
       </c>
       <c r="L125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N125" t="str">
         <f t="shared" si="4"/>
-        <v>(118, 62),</v>
+        <v>(28, 61),</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -3675,30 +3473,30 @@
         <v>29</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C126" s="6">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I126" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K126" t="str">
         <f t="shared" si="3"/>
-        <v>(63, 'Dedos de pollo', 29, 1),</v>
+        <v>(62, 'Croquetitas de carne, jamon cocido y queso', 29, 1),</v>
       </c>
       <c r="L126" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N126" t="str">
         <f t="shared" si="4"/>
-        <v>(119, 63),</v>
+        <v>(28, 62),</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -3706,30 +3504,30 @@
         <v>29</v>
       </c>
       <c r="B127">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C127" s="6">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K127" t="str">
         <f t="shared" si="3"/>
-        <v>(64, 'Dedos de verdura', 29, 1),</v>
+        <v>(63, 'Dedos de pollo', 29, 1),</v>
       </c>
       <c r="L127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N127" t="str">
         <f t="shared" si="4"/>
-        <v>(120, 64),</v>
+        <v>(30, 63),</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -3737,34 +3535,65 @@
         <v>29</v>
       </c>
       <c r="B128">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C128" s="6">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K128" t="str">
         <f t="shared" si="3"/>
-        <v>(65, 'Dedos de carne', 29, 1),</v>
+        <v>(64, 'Dedos de verdura', 29, 1),</v>
       </c>
       <c r="L128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N128" t="str">
         <f t="shared" si="4"/>
-        <v>(121, 65),</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="1"/>
+        <v>(28, 64),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>29</v>
+      </c>
+      <c r="B129">
+        <v>65</v>
+      </c>
+      <c r="C129" s="6">
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" t="s">
+        <v>81</v>
+      </c>
+      <c r="I129" t="s">
+        <v>81</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="3"/>
+        <v>(65, 'Dedos de carne', 29, 1),</v>
+      </c>
+      <c r="L129" t="s">
+        <v>81</v>
+      </c>
+      <c r="N129" t="str">
+        <f t="shared" si="4"/>
+        <v>(28, 65),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E131" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
